--- a/CIT/backend/enquiries.xlsx
+++ b/CIT/backend/enquiries.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -482,29 +482,9 @@
         <v>electrical</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>chetan</v>
-      </c>
-      <c r="B5" t="str">
-        <v>9114675692</v>
-      </c>
-      <c r="C5" t="str">
-        <v>admission</v>
-      </c>
-      <c r="D5" t="str">
-        <v>sirohi</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Rajasthan</v>
-      </c>
-      <c r="F5" t="str">
-        <v>computer-science</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>